--- a/hoge.xlsx
+++ b/hoge.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="26929"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="-20" windowWidth="38400" windowHeight="23460"/>
   </bookViews>
   <sheets>
     <sheet name="hoge1" sheetId="1" r:id="rId1"/>
     <sheet name="hoge2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="9">
   <si>
     <t>A</t>
   </si>
@@ -27,27 +32,47 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>aaaa</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>bbbb</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ああああ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>col1</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>col2</t>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -55,14 +80,36 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -75,7 +122,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -98,11 +145,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -110,13 +172,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="7">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -407,17 +478,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -430,123 +503,163 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>41275</v>
       </c>
       <c r="B2">
-        <v>-1.2698868690588</v>
+        <v>-1.2698868690588001</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.0982480130776199</v>
+        <v>-9.8248013077619906E-2</v>
       </c>
       <c r="D2">
-        <v>1.0264038828806</v>
+        <v>1.0264038828805999</v>
       </c>
       <c r="E2">
-        <v>-1.45934735463702</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-1.4593473546370199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>41276</v>
       </c>
       <c r="B3">
-        <v>1.04669351186767</v>
+        <v>1.0466935118676699</v>
       </c>
       <c r="C3" s="1">
-        <v>-0.798855431562692</v>
+        <v>-0.79885543156269201</v>
       </c>
       <c r="D3">
-        <v>0.511233389483127</v>
+        <v>0.51123338948312702</v>
       </c>
       <c r="E3">
-        <v>0.0470933479586597</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>4.7093347958659701E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>41277</v>
       </c>
       <c r="B4">
-        <v>1.35579863833497</v>
+        <v>1.3557986383349701</v>
       </c>
       <c r="C4" s="1">
         <v>-1.22195375355054</v>
       </c>
       <c r="D4">
-        <v>-0.43196834510552</v>
+        <v>-0.43196834510552001</v>
       </c>
       <c r="E4">
         <v>-1.82023551108105</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>41278</v>
       </c>
       <c r="B5">
-        <v>-1.62518595163763</v>
+        <v>-1.6251859516376299</v>
       </c>
       <c r="C5" s="1">
-        <v>-0.346217053418498</v>
+        <v>-0.34621705341849801</v>
       </c>
       <c r="D5">
-        <v>0.714188429845265</v>
+        <v>0.71418842984526498</v>
       </c>
       <c r="E5">
-        <v>0.921983643305321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.92198364330532101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>41279</v>
       </c>
       <c r="B6">
-        <v>0.820278336020639</v>
+        <v>0.82027833602063904</v>
       </c>
       <c r="C6" s="1">
-        <v>0.879210858251901</v>
+        <v>0.87921085825190104</v>
       </c>
       <c r="D6">
-        <v>1.44769223522003</v>
+        <v>1.4476922352200301</v>
       </c>
       <c r="E6">
-        <v>-0.787052099523706</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.78705209952370603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>41280</v>
       </c>
       <c r="B7">
-        <v>0.471833251471432</v>
+        <v>0.47183325147143201</v>
       </c>
       <c r="C7" s="1">
         <v>0.121541553119766</v>
       </c>
       <c r="D7">
-        <v>0.133188750311358</v>
+        <v>0.13318875031135799</v>
       </c>
       <c r="E7">
-        <v>0.885472086827476</v>
+        <v>0.88547208682747602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="G12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="20.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -574,22 +687,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="4">
-        <v>-1.2698868690588</v>
+        <v>-1.2698868690588001</v>
       </c>
       <c r="C2">
-        <v>1.04669351186767</v>
+        <v>1.0466935118676699</v>
       </c>
       <c r="D2">
-        <v>1.35579863833497</v>
+        <v>1.3557986383349701</v>
       </c>
       <c r="E2">
-        <v>-1.62518595163763</v>
+        <v>-1.6251859516376299</v>
       </c>
       <c r="F2">
-        <v>0.820278336020639</v>
+        <v>0.82027833602063904</v>
       </c>
       <c r="G2">
-        <v>0.471833251471432</v>
+        <v>0.47183325147143201</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -597,19 +710,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="4">
-        <v>-0.0982480130776199</v>
+        <v>-9.8248013077619906E-2</v>
       </c>
       <c r="C3">
-        <v>-0.798855431562692</v>
+        <v>-0.79885543156269201</v>
       </c>
       <c r="D3">
         <v>-1.22195375355054</v>
       </c>
       <c r="E3">
-        <v>-0.346217053418498</v>
+        <v>-0.34621705341849801</v>
       </c>
       <c r="F3">
-        <v>0.879210858251901</v>
+        <v>0.87921085825190104</v>
       </c>
       <c r="G3">
         <v>0.121541553119766</v>
@@ -620,22 +733,22 @@
         <v>2</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0264038828806</v>
+        <v>1.0264038828805999</v>
       </c>
       <c r="C4">
-        <v>0.511233389483127</v>
+        <v>0.51123338948312702</v>
       </c>
       <c r="D4">
-        <v>-0.43196834510552</v>
+        <v>-0.43196834510552001</v>
       </c>
       <c r="E4">
-        <v>0.714188429845265</v>
+        <v>0.71418842984526498</v>
       </c>
       <c r="F4">
-        <v>1.44769223522003</v>
+        <v>1.4476922352200301</v>
       </c>
       <c r="G4">
-        <v>0.133188750311358</v>
+        <v>0.13318875031135799</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -643,25 +756,31 @@
         <v>3</v>
       </c>
       <c r="B5" s="4">
-        <v>-1.45934735463702</v>
+        <v>-1.4593473546370199</v>
       </c>
       <c r="C5">
-        <v>0.0470933479586597</v>
+        <v>4.7093347958659701E-2</v>
       </c>
       <c r="D5">
         <v>-1.82023551108105</v>
       </c>
       <c r="E5">
-        <v>0.921983643305321</v>
+        <v>0.92198364330532101</v>
       </c>
       <c r="F5">
-        <v>-0.787052099523706</v>
+        <v>-0.78705209952370603</v>
       </c>
       <c r="G5">
-        <v>0.885472086827476</v>
+        <v>0.88547208682747602</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>